--- a/biology/Botanique/Tricalysia/Tricalysia.xlsx
+++ b/biology/Botanique/Tricalysia/Tricalysia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tricalysia est un genre de plantes appartenant à la famille des Rubiacées (Rubiaceae). 
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart des espèces appartenant au genre Tricalysia sont de petits arbustes à feuilles caduques ou persistantes selon les espèces. Les inflorescences des plantes du genre Tricalysia sont axiliaires et sessiles. La majorité des plantes de ce genre possède des fleurs parfumées de couleur blanche, crème ou rosée[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des espèces appartenant au genre Tricalysia sont de petits arbustes à feuilles caduques ou persistantes selon les espèces. Les inflorescences des plantes du genre Tricalysia sont axiliaires et sessiles. La majorité des plantes de ce genre possède des fleurs parfumées de couleur blanche, crème ou rosée.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,9 +584,11 @@
           <t>Liste des espèces, sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (24 juillet 2017)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (24 juillet 2017) :
 Tricalysia achoundongiana Robbr., Sonké &amp; Kenfack
 Tricalysia aciculiflora Robbr.
 Tricalysia acocantheroides K.Schum.
@@ -649,9 +667,9 @@
 Tricalysia wernhamiana (Hutch. &amp; Dalziel) Keay
 Tricalysia yangambiensis (N.Hallé) Robbr.
 Tricalysia zambesiaca Robbr.
-Selon GRIN            (24 juillet 2017)[4] :
+Selon GRIN            (24 juillet 2017) :
 Tricalysia dubia (Lindl.) Ohwi
-Selon NCBI  (24 juillet 2017)[5] :
+Selon NCBI  (24 juillet 2017) :
 Tricalysia achoundongiana
 Tricalysia aciculiflora
 Tricalysia acocantheroides
@@ -687,7 +705,7 @@
 Tricalysia semidecidua
 Tricalysia verdcourtiana
 Tricalysia zambesiaca
-Selon The Plant List            (24 juillet 2017)[6] :
+Selon The Plant List            (24 juillet 2017) :
 Tricalysia achoundongiana Robbr., Sonké &amp; Kenfack
 Tricalysia aciculiflora Robbr.
 Tricalysia acocantheroides K.Schum.
@@ -767,7 +785,7 @@
 Tricalysia wernhamiana (Hutch. &amp; Dalziel) Keay
 Tricalysia yangambiensis (N.Hallé) Robbr.
 Tricalysia zambesiaca Robbr.
-Selon Tropicos                                           (24 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Tricalysia abnormis (Korth.) Merr.
 Tricalysia achoundongiana Robbr., Sonké &amp; Kenfack
 Tricalysia aciculiflora Robbr.
